--- a/module/waapi/waapi_auto_gen_state/Set设置类表 (1).xlsx
+++ b/module/waapi/waapi_auto_gen_state/Set设置类表 (1).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Group名称</t>
   </si>
@@ -40,135 +40,6 @@
   </si>
   <si>
     <t>值描述</t>
-  </si>
-  <si>
-    <t>Combat_Boss_State</t>
-  </si>
-  <si>
-    <t>Boss战_状态</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>终局</t>
-  </si>
-  <si>
-    <t>Stage1</t>
-  </si>
-  <si>
-    <t>阶段1</t>
-  </si>
-  <si>
-    <t>Stage2</t>
-  </si>
-  <si>
-    <t>阶段2</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>开场</t>
-  </si>
-  <si>
-    <t>Trans</t>
-  </si>
-  <si>
-    <t>转场</t>
-  </si>
-  <si>
-    <t>Combat_Mon_Type</t>
-  </si>
-  <si>
-    <t>战斗_怪物类型</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>精英怪</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>中型怪</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>小型怪</t>
-  </si>
-  <si>
-    <t>Gameplay_State</t>
-  </si>
-  <si>
-    <t>游戏内_状态</t>
-  </si>
-  <si>
-    <t>Explore</t>
-  </si>
-  <si>
-    <t>探索</t>
-  </si>
-  <si>
-    <t>Process_State</t>
-  </si>
-  <si>
-    <t>流程_状态</t>
-  </si>
-  <si>
-    <t>Gameplay</t>
-  </si>
-  <si>
-    <t>游戏内</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>登录界面</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>剧情（过场动画）</t>
-  </si>
-  <si>
-    <t>Map_Type</t>
-  </si>
-  <si>
-    <t>地图_类型</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>地图1</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>地图2</t>
-  </si>
-  <si>
-    <t>Mus_Mus_Map_A02_Combat_Boss_Last_Type</t>
-  </si>
-  <si>
-    <t>Boss战_终战</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>ai22</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1029,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1183,186 +1054,106 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1390,7 +1181,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1416,24 +1207,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
